--- a/parciales/p3/datos-thomas-sara-manu.xlsx
+++ b/parciales/p3/datos-thomas-sara-manu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomm\Documents\GitHub\modelacion-y-simulacion-5\parciales\p3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB738D54-25CA-4076-B388-D94BE68E7E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E369AB8-72DB-465E-A1A1-2B332C7680F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B62C74AF-7F40-45F1-8466-608337C499C6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
   <si>
     <t>Results</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Average_Utilization</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -688,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B072159-C6FD-4C76-B33B-F8EA6F8ACEF5}">
   <dimension ref="A1:BM27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4504,6 +4507,41 @@
         <v>41.414695000000002</v>
       </c>
     </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" t="s">
+        <v>90</v>
+      </c>
+      <c r="V20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>82</v>
